--- a/db/dicc_gps.xlsx
+++ b/db/dicc_gps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/SERPAM Dropbox/antonioj perezluque/vreGI/vreGI_db/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3560D8-606B-A047-9D38-506ACE76AD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE6D9C-49E3-A349-8C31-A1FA75053395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{D072D900-3A35-0847-B582-0DCF0F9D656E}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="18100" activeTab="1" xr2:uid="{D072D900-3A35-0847-B582-0DCF0F9D656E}"/>
   </bookViews>
   <sheets>
     <sheet name="dicc_ganaderos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="168">
   <si>
     <t>user_name</t>
   </si>
@@ -518,13 +518,34 @@
   </si>
   <si>
     <t>GPS_14</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the number is for all herds of this sheperd </t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>oveja</t>
+  </si>
+  <si>
+    <t>cabra | oveja</t>
+  </si>
+  <si>
+    <t>cabra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,6 +573,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -585,6 +613,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0500B323-49C9-3443-BF24-D23965D728E9}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,9 +1137,10 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1123,8 +1156,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,8 +1176,11 @@
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1157,8 +1196,11 @@
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1174,8 +1216,11 @@
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1191,8 +1236,11 @@
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1208,8 +1256,11 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1225,8 +1276,11 @@
       <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1242,8 +1296,11 @@
       <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1259,8 +1316,11 @@
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1276,8 +1336,11 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1293,8 +1356,11 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1310,8 +1376,11 @@
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1327,8 +1396,11 @@
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1344,8 +1416,11 @@
       <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1361,8 +1436,11 @@
       <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1378,8 +1456,11 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1395,8 +1476,11 @@
       <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1412,8 +1496,11 @@
       <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1429,8 +1516,11 @@
       <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1446,8 +1536,11 @@
       <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1463,8 +1556,11 @@
       <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1480,8 +1576,11 @@
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1497,8 +1596,11 @@
       <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1514,8 +1616,11 @@
       <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1531,8 +1636,11 @@
       <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1548,8 +1656,11 @@
       <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1565,8 +1676,11 @@
       <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1582,8 +1696,11 @@
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1599,8 +1716,11 @@
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1616,8 +1736,11 @@
       <c r="E30" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1633,8 +1756,11 @@
       <c r="E31" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1650,8 +1776,11 @@
       <c r="E32" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1668,7 +1797,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1685,7 +1814,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1702,7 +1831,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1718,8 +1847,11 @@
       <c r="E36" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1735,8 +1867,11 @@
       <c r="E37" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1752,8 +1887,11 @@
       <c r="E38" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1769,8 +1907,11 @@
       <c r="E39" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1786,8 +1927,11 @@
       <c r="E40" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1803,8 +1947,11 @@
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1820,8 +1967,11 @@
       <c r="E42" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1837,8 +1987,11 @@
       <c r="E43" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1854,8 +2007,11 @@
       <c r="E44" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1871,8 +2027,11 @@
       <c r="E45" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1888,8 +2047,11 @@
       <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1905,8 +2067,11 @@
       <c r="E47" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1922,8 +2087,11 @@
       <c r="E48" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1939,8 +2107,11 @@
       <c r="E49" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1956,8 +2127,11 @@
       <c r="E50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1973,8 +2147,11 @@
       <c r="E51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1990,8 +2167,11 @@
       <c r="E52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2007,8 +2187,11 @@
       <c r="E53" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2024,8 +2207,11 @@
       <c r="E54" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2041,8 +2227,11 @@
       <c r="E55" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2058,8 +2247,11 @@
       <c r="E56" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2076,7 +2268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2093,7 +2285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2109,8 +2301,11 @@
       <c r="E59" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2126,8 +2321,11 @@
       <c r="E60" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2143,8 +2341,11 @@
       <c r="E61" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2160,8 +2361,11 @@
       <c r="E62" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2177,8 +2381,11 @@
       <c r="E63" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2194,8 +2401,11 @@
       <c r="E64" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2211,8 +2421,11 @@
       <c r="E65" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2228,8 +2441,11 @@
       <c r="E66" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2245,8 +2461,11 @@
       <c r="E67" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2262,8 +2481,11 @@
       <c r="E68" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2279,8 +2501,11 @@
       <c r="E69" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2296,8 +2521,11 @@
       <c r="E70" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2313,8 +2541,11 @@
       <c r="E71" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2330,8 +2561,11 @@
       <c r="E72" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2347,8 +2581,11 @@
       <c r="E73" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2364,8 +2601,11 @@
       <c r="E74" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2381,8 +2621,11 @@
       <c r="E75" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2398,8 +2641,11 @@
       <c r="E76" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2415,8 +2661,11 @@
       <c r="E77" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2432,8 +2681,11 @@
       <c r="E78" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2449,8 +2701,11 @@
       <c r="E79" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2465,6 +2720,9 @@
       </c>
       <c r="E80" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2483,6 +2741,9 @@
       <c r="E81" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="F81" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -2500,6 +2761,9 @@
       <c r="E82" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F82" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -2517,6 +2781,9 @@
       <c r="E83" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F83" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -2534,6 +2801,9 @@
       <c r="E84" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F84" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -2551,6 +2821,9 @@
       <c r="E85" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F85" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -2568,6 +2841,9 @@
       <c r="E86" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F86" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -2585,6 +2861,9 @@
       <c r="E87" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F87" t="s">
+        <v>165</v>
+      </c>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -2603,6 +2882,9 @@
       <c r="E88" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="F88" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -2620,6 +2902,9 @@
       <c r="E89" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F89" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -2637,6 +2922,9 @@
       <c r="E90" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="F90" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -2654,6 +2942,9 @@
       <c r="E91" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F91" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -2671,6 +2962,9 @@
       <c r="E92" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="F92" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -2688,6 +2982,9 @@
       <c r="E93" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="F93" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -2705,6 +3002,9 @@
       <c r="E94" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F94" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -2721,6 +3021,9 @@
       </c>
       <c r="E95" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="F95" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2731,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3E1F52-1F19-1D4C-B88C-969FFCAF115D}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2742,9 +3045,11 @@
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2754,56 +3059,80 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2813,8 +3142,14 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="5">
+        <v>600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2824,8 +3159,14 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="5">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2835,8 +3176,14 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="5">
+        <v>600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2846,8 +3193,11 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2857,16 +3207,22 @@
       <c r="C12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2876,8 +3232,11 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2887,8 +3246,14 @@
       <c r="C15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2898,8 +3263,14 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2909,8 +3280,11 @@
       <c r="C17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2920,8 +3294,14 @@
       <c r="C18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5">
+        <v>500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2930,6 +3310,12 @@
       </c>
       <c r="C19" t="s">
         <v>33</v>
+      </c>
+      <c r="D19" s="5">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/db/dicc_gps.xlsx
+++ b/db/dicc_gps.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/SERPAM Dropbox/antonioj perezluque/vreGI/vreGI_db/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE6D9C-49E3-A349-8C31-A1FA75053395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DFD126-B6E0-A549-92DB-FB3B0DD169EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="18100" activeTab="1" xr2:uid="{D072D900-3A35-0847-B582-0DCF0F9D656E}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="36200" windowHeight="21100" activeTab="2" xr2:uid="{D072D900-3A35-0847-B582-0DCF0F9D656E}"/>
   </bookViews>
   <sheets>
     <sheet name="dicc_ganaderos" sheetId="1" r:id="rId1"/>
     <sheet name="dicc_dispositivos" sheetId="3" r:id="rId2"/>
-    <sheet name="dicc_explotaciones" sheetId="2" r:id="rId3"/>
+    <sheet name="gps_localidad_duracion" sheetId="4" r:id="rId3"/>
+    <sheet name="dicc_explotaciones" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="170">
   <si>
     <t>user_name</t>
   </si>
@@ -539,6 +540,12 @@
   </si>
   <si>
     <t>cabra</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -601,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,6 +624,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0500B323-49C9-3443-BF24-D23965D728E9}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3033,6 +3041,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40313F8C-D20D-1446-83A3-E9E4D54BD4B4}">
+  <dimension ref="A1:M96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44562</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45078</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44562</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44562</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44562</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="7">
+        <v>45078</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3E1F52-1F19-1D4C-B88C-969FFCAF115D}">
   <dimension ref="A1:E19"/>
   <sheetViews>

--- a/db/dicc_gps.xlsx
+++ b/db/dicc_gps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/SERPAM Dropbox/antonioj perezluque/vreGI/vreGI_db/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DFD126-B6E0-A549-92DB-FB3B0DD169EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B930BE7-9D8F-B345-92A4-95A0DF0D6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="36200" windowHeight="21100" activeTab="2" xr2:uid="{D072D900-3A35-0847-B582-0DCF0F9D656E}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="36200" windowHeight="21100" activeTab="1" xr2:uid="{D072D900-3A35-0847-B582-0DCF0F9D656E}"/>
   </bookViews>
   <sheets>
     <sheet name="dicc_ganaderos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="175">
   <si>
     <t>user_name</t>
   </si>
@@ -311,9 +311,6 @@
     <t>AV612</t>
   </si>
   <si>
-    <t>SNE-6</t>
-  </si>
-  <si>
     <t>AV613</t>
   </si>
   <si>
@@ -546,6 +543,24 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>enp</t>
+  </si>
+  <si>
+    <t>filabres</t>
+  </si>
+  <si>
+    <t>cabogata</t>
+  </si>
+  <si>
+    <t>nevada</t>
+  </si>
+  <si>
+    <t>nieves</t>
+  </si>
+  <si>
+    <t>SIN-2</t>
   </si>
 </sst>
 </file>
@@ -588,12 +603,96 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -608,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -625,6 +724,35 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBFF416-8339-1F4B-AC05-A0937C9DC764}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,6 +1092,9 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -975,6 +1106,9 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -986,7 +1120,9 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -998,6 +1134,9 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1009,6 +1148,9 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1020,6 +1162,9 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1031,6 +1176,9 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1042,6 +1190,9 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1053,6 +1204,9 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1064,6 +1218,9 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1075,7 +1232,9 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1087,7 +1246,9 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1099,7 +1260,9 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1111,6 +1274,9 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1122,7 +1288,9 @@
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
@@ -1136,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0500B323-49C9-3443-BF24-D23965D728E9}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,7 +1353,7 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,7 +1373,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,7 +1393,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1245,7 +1413,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1265,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,7 +1453,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1305,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1325,7 +1493,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1345,7 +1513,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1365,7 +1533,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1385,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1425,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,7 +1613,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,7 +1633,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,7 +1653,7 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1505,7 +1673,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1525,7 +1693,7 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1545,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,7 +1733,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1585,7 +1753,7 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1605,7 +1773,7 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1625,7 +1793,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1645,7 +1813,7 @@
         <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1665,7 +1833,7 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1685,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1705,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1725,7 +1893,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1745,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1765,7 +1933,7 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,7 +1953,7 @@
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1793,16 +1961,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1810,16 +1981,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
+        <v>92</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,16 +2001,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>145</v>
+        <v>93</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1850,13 +2027,13 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1870,13 +2047,13 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,13 +2067,13 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1910,13 +2087,13 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1930,13 +2107,13 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1950,13 +2127,13 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1970,13 +2147,13 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1990,13 +2167,13 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2010,13 +2187,13 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2030,13 +2207,13 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2050,13 +2227,13 @@
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2070,13 +2247,13 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2090,13 +2267,13 @@
         <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2110,13 +2287,13 @@
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2127,16 +2304,16 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
         <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2147,16 +2324,16 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2167,16 +2344,16 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2187,16 +2364,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2207,16 +2384,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2227,16 +2404,16 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2247,33 +2424,30 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2281,16 +2455,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
+        <v>117</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2301,16 +2478,16 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2321,16 +2498,16 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2341,16 +2518,16 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2361,16 +2538,16 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2381,16 +2558,16 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2401,16 +2578,16 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2421,16 +2598,16 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2441,16 +2618,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
         <v>126</v>
-      </c>
-      <c r="D66" t="s">
-        <v>127</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2461,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2481,16 +2658,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2501,16 +2678,16 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2521,16 +2698,16 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2541,16 +2718,16 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2561,16 +2738,16 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2581,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2601,16 +2778,16 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2621,16 +2798,16 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2641,16 +2818,16 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2661,16 +2838,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,16 +2858,16 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,16 +2878,16 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2721,16 +2898,16 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2741,16 +2918,16 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,16 +2938,16 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
         <v>146</v>
-      </c>
-      <c r="D82" t="s">
-        <v>147</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2781,16 +2958,16 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2801,16 +2978,16 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2821,16 +2998,16 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2841,16 +3018,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -2861,16 +3038,16 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -2882,16 +3059,16 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -2902,16 +3079,16 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -2922,16 +3099,16 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -2942,16 +3119,16 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -2962,16 +3139,16 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -2982,16 +3159,16 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3002,16 +3179,16 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3022,16 +3199,16 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3042,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40313F8C-D20D-1446-83A3-E9E4D54BD4B4}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A39" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3062,786 +3239,784 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" t="s">
-        <v>169</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7">
-        <v>44562</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45078</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="27">
+        <v>44562</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="7">
-        <v>44562</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" t="s">
+      <c r="C3" s="27">
+        <v>44562</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="7">
-        <v>44562</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" t="s">
+      <c r="C4" s="27">
+        <v>44562</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="7">
-        <v>44562</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" t="s">
+      <c r="C5" s="27">
+        <v>44562</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="33">
+        <v>44562</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="33">
+        <v>44562</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="33">
+        <v>44562</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="31">
+        <v>44562</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="31">
+        <v>44562</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="31">
+        <v>44562</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="9">
+        <v>44562</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="9">
+        <v>44562</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="9">
+        <v>44562</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="13">
+        <v>44562</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="13">
+        <v>44562</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="13">
+        <v>44562</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="15">
+        <v>44562</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="15">
+        <v>44562</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="15">
+        <v>44562</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="17">
+        <v>44562</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="17">
+        <v>44562</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="17">
+        <v>44562</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="19">
+        <v>44562</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" s="19">
+        <v>44562</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C37" s="19">
+        <v>44562</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C38" s="19">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" s="21">
+        <v>44562</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40" s="21">
+        <v>44562</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C41" s="21">
+        <v>44562</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C43" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C44" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C45" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C47" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C48" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C49" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="9">
+        <v>44562</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C51" s="9">
+        <v>44562</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C53" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C54" s="11">
+        <v>44562</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="15">
+        <v>44562</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="7">
         <v>44562</v>
@@ -3850,278 +4025,275 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="7">
         <v>44562</v>
       </c>
-      <c r="E57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="7">
+        <v>44562</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20">
+        <v>58</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" s="21">
+        <v>44562</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20">
+        <v>59</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C60" s="21">
+        <v>44562</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="61" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="22">
+        <v>60</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C61" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="22">
+        <v>61</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C62" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="22">
+        <v>62</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C63" s="23">
+        <v>44562</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>63</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="24">
+        <v>64</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C65" s="25">
+        <v>44562</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="27">
+        <v>44562</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="26">
+        <v>66</v>
+      </c>
+      <c r="B67" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C67" s="27">
+        <v>44562</v>
+      </c>
+      <c r="E67" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="68" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26">
+        <v>67</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C68" s="27">
+        <v>44562</v>
+      </c>
+      <c r="E68" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
+        <v>68</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
+        <v>69</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C70" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28">
+        <v>70</v>
+      </c>
+      <c r="B71" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C71" s="29">
+        <v>44562</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="72" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="32">
+        <v>71</v>
+      </c>
+      <c r="B72" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" s="33">
+        <v>44562</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="32">
+        <v>72</v>
+      </c>
+      <c r="B73" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C73" s="33">
+        <v>44562</v>
+      </c>
+      <c r="E73" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="30">
+        <v>73</v>
+      </c>
+      <c r="B74" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" s="31">
+        <v>44562</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="30">
+        <v>74</v>
+      </c>
+      <c r="B75" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C75" s="31">
+        <v>44562</v>
+      </c>
+      <c r="E75" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" s="7">
         <v>44562</v>
@@ -4130,12 +4302,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" s="7">
         <v>44562</v>
@@ -4144,124 +4316,124 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="17">
+        <v>44562</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C79" s="17">
+        <v>44562</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" s="19">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C81" s="19">
+        <v>44562</v>
+      </c>
+      <c r="E81" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="34">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="35">
+        <v>44562</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="34">
+        <v>82</v>
+      </c>
+      <c r="B83" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="C83" s="35">
+        <v>44562</v>
+      </c>
+      <c r="E83" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="34">
+        <v>83</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="C84" s="35">
+        <v>44562</v>
+      </c>
+      <c r="E84" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="85" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="34">
+        <v>84</v>
+      </c>
+      <c r="B85" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="C85" s="35">
+        <v>44562</v>
+      </c>
+      <c r="E85" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="7">
-        <v>44562</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="7">
         <v>44562</v>
@@ -4270,12 +4442,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="7">
         <v>44562</v>
@@ -4284,12 +4456,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="7">
         <v>44562</v>
@@ -4298,12 +4470,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="7">
         <v>44562</v>
@@ -4312,12 +4484,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="7">
         <v>44562</v>
@@ -4326,12 +4498,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="7">
         <v>44562</v>
@@ -4340,12 +4512,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="7">
         <v>44562</v>
@@ -4354,12 +4526,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="7">
         <v>44562</v>
@@ -4368,12 +4540,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="7">
         <v>44562</v>
@@ -4382,33 +4554,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="7">
         <v>44562</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="7">
-        <v>45078</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4444,10 +4601,10 @@
         <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4530,7 +4687,7 @@
         <v>600</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4547,7 +4704,7 @@
         <v>600</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4564,7 +4721,7 @@
         <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4589,7 +4746,7 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="5">
         <v>400</v>
@@ -4634,7 +4791,7 @@
         <v>2500</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4651,7 +4808,7 @@
         <v>2500</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4662,7 +4819,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5">
         <v>300</v>
@@ -4682,7 +4839,7 @@
         <v>500</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4699,7 +4856,7 @@
         <v>500</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
